--- a/data_year/zb/人口/人口抽样调查样本数据/按婚姻状况分人口数(人口抽样调查).xlsx
+++ b/data_year/zb/人口/人口抽样调查样本数据/按婚姻状况分人口数(人口抽样调查).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,1059 +543,605 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>58020</v>
+        <v>52223</v>
       </c>
       <c r="C2" t="n">
-        <v>990974</v>
+        <v>956619</v>
       </c>
       <c r="D2" t="n">
-        <v>16885</v>
+        <v>14956</v>
       </c>
       <c r="E2" t="n">
-        <v>712722</v>
+        <v>677283</v>
       </c>
       <c r="F2" t="n">
-        <v>40207</v>
+        <v>36095</v>
       </c>
       <c r="G2" t="n">
-        <v>491825</v>
+        <v>471779</v>
       </c>
       <c r="H2" t="n">
-        <v>9007</v>
+        <v>7900</v>
       </c>
       <c r="I2" t="n">
-        <v>359455</v>
+        <v>337609</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>79195</v>
+        <v>84651</v>
       </c>
       <c r="L2" t="n">
-        <v>3960</v>
+        <v>5523</v>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
-        <v>193236</v>
+        <v>199241</v>
       </c>
       <c r="O2" t="n">
-        <v>17813</v>
+        <v>16128</v>
       </c>
       <c r="P2" t="n">
-        <v>499149</v>
+        <v>484840</v>
       </c>
       <c r="Q2" t="n">
-        <v>7878</v>
+        <v>7057</v>
       </c>
       <c r="R2" t="n">
-        <v>353266</v>
+        <v>339674</v>
       </c>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="n">
-        <v>114041</v>
+        <v>114590</v>
       </c>
       <c r="U2" t="n">
-        <v>6151</v>
+        <v>7391</v>
       </c>
       <c r="V2" t="n">
-        <v>10111</v>
+        <v>12915</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57493</v>
+        <v>50226</v>
       </c>
       <c r="C3" t="n">
-        <v>1004154</v>
+        <v>939526</v>
       </c>
       <c r="D3" t="n">
-        <v>17293</v>
+        <v>14647</v>
       </c>
       <c r="E3" t="n">
-        <v>721846</v>
+        <v>669629</v>
       </c>
       <c r="F3" t="n">
-        <v>39876</v>
+        <v>34888</v>
       </c>
       <c r="G3" t="n">
-        <v>498676</v>
+        <v>463489</v>
       </c>
       <c r="H3" t="n">
-        <v>9147</v>
+        <v>7642</v>
       </c>
       <c r="I3" t="n">
-        <v>364322</v>
+        <v>334843</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>80941</v>
+        <v>80455</v>
       </c>
       <c r="L3" t="n">
-        <v>4389</v>
+        <v>5662</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>196717</v>
+        <v>191753</v>
       </c>
       <c r="O3" t="n">
-        <v>17617</v>
+        <v>15337</v>
       </c>
       <c r="P3" t="n">
-        <v>505478</v>
+        <v>476037</v>
       </c>
       <c r="Q3" t="n">
-        <v>8146</v>
+        <v>7005</v>
       </c>
       <c r="R3" t="n">
-        <v>357524</v>
+        <v>334786</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="n">
-        <v>115776</v>
+        <v>111298</v>
       </c>
       <c r="U3" t="n">
-        <v>6415</v>
+        <v>7610</v>
       </c>
       <c r="V3" t="n">
-        <v>10805</v>
+        <v>13272</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>57903</v>
+        <v>50692</v>
       </c>
       <c r="C4" t="n">
-        <v>1011199</v>
+        <v>934935</v>
       </c>
       <c r="D4" t="n">
-        <v>16527</v>
+        <v>15023</v>
       </c>
       <c r="E4" t="n">
-        <v>728431</v>
+        <v>665734</v>
       </c>
       <c r="F4" t="n">
-        <v>40195</v>
+        <v>34862</v>
       </c>
       <c r="G4" t="n">
-        <v>504475</v>
+        <v>460810</v>
       </c>
       <c r="H4" t="n">
-        <v>8781</v>
+        <v>7848</v>
       </c>
       <c r="I4" t="n">
-        <v>367721</v>
+        <v>334770</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
-        <v>83403</v>
+        <v>77147</v>
       </c>
       <c r="L4" t="n">
-        <v>4375</v>
+        <v>6183</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>197561</v>
+        <v>188708</v>
       </c>
       <c r="O4" t="n">
-        <v>17708</v>
+        <v>15830</v>
       </c>
       <c r="P4" t="n">
-        <v>506724</v>
+        <v>474125</v>
       </c>
       <c r="Q4" t="n">
-        <v>7746</v>
+        <v>7175</v>
       </c>
       <c r="R4" t="n">
-        <v>360710</v>
+        <v>330964</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="n">
-        <v>114158</v>
+        <v>111561</v>
       </c>
       <c r="U4" t="n">
-        <v>6402</v>
+        <v>8595</v>
       </c>
       <c r="V4" t="n">
-        <v>10777</v>
+        <v>14778</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>783760</v>
+        <v>50409</v>
       </c>
       <c r="C5" t="n">
-        <v>13664737</v>
+        <v>938993</v>
       </c>
       <c r="D5" t="n">
-        <v>301209</v>
+        <v>19181</v>
       </c>
       <c r="E5" t="n">
-        <v>9824784</v>
+        <v>668223</v>
       </c>
       <c r="F5" t="n">
-        <v>544209</v>
+        <v>35345</v>
       </c>
       <c r="G5" t="n">
-        <v>6878061</v>
+        <v>463408</v>
       </c>
       <c r="H5" t="n">
-        <v>162262</v>
+        <v>9879</v>
       </c>
       <c r="I5" t="n">
-        <v>5022977</v>
+        <v>336269</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>1094474</v>
+        <v>75132</v>
       </c>
       <c r="L5" t="n">
-        <v>54139</v>
+        <v>6783</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>2619360</v>
+        <v>184889</v>
       </c>
       <c r="O5" t="n">
-        <v>239551</v>
+        <v>15064</v>
       </c>
       <c r="P5" t="n">
-        <v>6786677</v>
+        <v>475585</v>
       </c>
       <c r="Q5" t="n">
-        <v>138947</v>
+        <v>9302</v>
       </c>
       <c r="R5" t="n">
-        <v>4801807</v>
+        <v>331953</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
-        <v>1524886</v>
+        <v>109758</v>
       </c>
       <c r="U5" t="n">
-        <v>81486</v>
+        <v>9508</v>
       </c>
       <c r="V5" t="n">
-        <v>135625</v>
+        <v>16291</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56962</v>
+        <v>978571</v>
       </c>
       <c r="C6" t="n">
-        <v>972385</v>
-      </c>
-      <c r="D6" t="n">
-        <v>18083</v>
-      </c>
-      <c r="E6" t="n">
-        <v>698582</v>
-      </c>
+        <v>17790430</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>39327</v>
+        <v>689069</v>
       </c>
       <c r="G6" t="n">
-        <v>488202</v>
-      </c>
-      <c r="H6" t="n">
-        <v>9710</v>
-      </c>
-      <c r="I6" t="n">
-        <v>356115</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+        <v>8779053</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>6505270</v>
+      </c>
       <c r="K6" t="n">
-        <v>79051</v>
+        <v>1435678</v>
       </c>
       <c r="L6" t="n">
-        <v>3999</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>130800</v>
+      </c>
+      <c r="M6" t="n">
+        <v>12973649</v>
+      </c>
       <c r="N6" t="n">
-        <v>188559</v>
+        <v>3495613</v>
       </c>
       <c r="O6" t="n">
-        <v>17635</v>
+        <v>289502</v>
       </c>
       <c r="P6" t="n">
-        <v>484183</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>8374</v>
-      </c>
-      <c r="R6" t="n">
-        <v>342467</v>
-      </c>
-      <c r="S6" t="inlineStr"/>
+        <v>9011377</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="n">
+        <v>6468379</v>
+      </c>
       <c r="T6" t="n">
-        <v>109508</v>
+        <v>2059935</v>
       </c>
       <c r="U6" t="n">
-        <v>6199</v>
+        <v>174084</v>
       </c>
       <c r="V6" t="n">
-        <v>10199</v>
+        <v>304884</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>57450</v>
+        <v>53577</v>
       </c>
       <c r="C7" t="n">
-        <v>976263</v>
-      </c>
-      <c r="D7" t="n">
-        <v>17338</v>
-      </c>
-      <c r="E7" t="n">
-        <v>703008</v>
-      </c>
+        <v>965321</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>39524</v>
+        <v>37641</v>
       </c>
       <c r="G7" t="n">
-        <v>489304</v>
-      </c>
-      <c r="H7" t="n">
-        <v>9206</v>
-      </c>
-      <c r="I7" t="n">
-        <v>357498</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
+        <v>476376</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>356158</v>
+      </c>
       <c r="K7" t="n">
-        <v>78913</v>
+        <v>74584</v>
       </c>
       <c r="L7" t="n">
-        <v>4162</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>7993</v>
+      </c>
+      <c r="M7" t="n">
+        <v>710768</v>
+      </c>
       <c r="N7" t="n">
-        <v>187773</v>
+        <v>182568</v>
       </c>
       <c r="O7" t="n">
-        <v>17926</v>
+        <v>15935</v>
       </c>
       <c r="P7" t="n">
-        <v>486960</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>8132</v>
-      </c>
-      <c r="R7" t="n">
-        <v>345510</v>
-      </c>
-      <c r="S7" t="inlineStr"/>
+        <v>488944</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>354610</v>
+      </c>
       <c r="T7" t="n">
-        <v>108859</v>
+        <v>107984</v>
       </c>
       <c r="U7" t="n">
-        <v>6532</v>
+        <v>10415</v>
       </c>
       <c r="V7" t="n">
-        <v>10694</v>
+        <v>18408</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>57536</v>
+        <v>52740</v>
       </c>
       <c r="C8" t="n">
-        <v>974433</v>
-      </c>
-      <c r="D8" t="n">
-        <v>17043</v>
-      </c>
-      <c r="E8" t="n">
-        <v>704076</v>
-      </c>
+        <v>952893</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>39489</v>
+        <v>37793</v>
       </c>
       <c r="G8" t="n">
-        <v>487319</v>
-      </c>
-      <c r="H8" t="n">
-        <v>8995</v>
-      </c>
-      <c r="I8" t="n">
-        <v>357396</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
+        <v>470561</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>351854</v>
+      </c>
       <c r="K8" t="n">
-        <v>76976</v>
+        <v>72470</v>
       </c>
       <c r="L8" t="n">
-        <v>4463</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>8444</v>
+      </c>
+      <c r="M8" t="n">
+        <v>703884</v>
+      </c>
       <c r="N8" t="n">
-        <v>184613</v>
+        <v>177158</v>
       </c>
       <c r="O8" t="n">
-        <v>18047</v>
+        <v>14946</v>
       </c>
       <c r="P8" t="n">
-        <v>487113</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>8048</v>
-      </c>
-      <c r="R8" t="n">
-        <v>346680</v>
-      </c>
-      <c r="S8" t="inlineStr"/>
+        <v>482331</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="n">
+        <v>352030</v>
+      </c>
       <c r="T8" t="n">
-        <v>107637</v>
+        <v>104688</v>
       </c>
       <c r="U8" t="n">
-        <v>6702</v>
+        <v>10667</v>
       </c>
       <c r="V8" t="n">
-        <v>11164</v>
+        <v>19110</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>56454</v>
+        <v>53360</v>
       </c>
       <c r="C9" t="n">
-        <v>968469</v>
-      </c>
-      <c r="D9" t="n">
-        <v>16404</v>
-      </c>
-      <c r="E9" t="n">
-        <v>702009</v>
-      </c>
+        <v>951685</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>38758</v>
+        <v>38821</v>
       </c>
       <c r="G9" t="n">
-        <v>484192</v>
-      </c>
-      <c r="H9" t="n">
-        <v>8600</v>
-      </c>
-      <c r="I9" t="n">
-        <v>356999</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
+        <v>470327</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>353052</v>
+      </c>
       <c r="K9" t="n">
-        <v>75159</v>
+        <v>69466</v>
       </c>
       <c r="L9" t="n">
-        <v>4676</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>8986</v>
+      </c>
+      <c r="M9" t="n">
+        <v>705367</v>
+      </c>
       <c r="N9" t="n">
-        <v>181718</v>
+        <v>172875</v>
       </c>
       <c r="O9" t="n">
-        <v>17697</v>
+        <v>14538</v>
       </c>
       <c r="P9" t="n">
-        <v>484277</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>7804</v>
-      </c>
-      <c r="R9" t="n">
-        <v>345010</v>
-      </c>
-      <c r="S9" t="inlineStr"/>
+        <v>481358</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="n">
+        <v>352315</v>
+      </c>
       <c r="T9" t="n">
-        <v>106558</v>
+        <v>103409</v>
       </c>
       <c r="U9" t="n">
-        <v>7208</v>
+        <v>11095</v>
       </c>
       <c r="V9" t="n">
-        <v>11884</v>
+        <v>20082</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>52223</v>
+        <v>51947</v>
       </c>
       <c r="C10" t="n">
-        <v>956619</v>
-      </c>
-      <c r="D10" t="n">
-        <v>14956</v>
-      </c>
-      <c r="E10" t="n">
-        <v>677283</v>
-      </c>
+        <v>908609</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>36095</v>
+        <v>37853</v>
       </c>
       <c r="G10" t="n">
-        <v>471779</v>
-      </c>
-      <c r="H10" t="n">
-        <v>7900</v>
-      </c>
-      <c r="I10" t="n">
-        <v>337609</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
+        <v>449374</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>337817</v>
+      </c>
       <c r="K10" t="n">
-        <v>84651</v>
+        <v>64721</v>
       </c>
       <c r="L10" t="n">
-        <v>5523</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>8984</v>
+      </c>
+      <c r="M10" t="n">
+        <v>672419</v>
+      </c>
       <c r="N10" t="n">
-        <v>199241</v>
+        <v>163714</v>
       </c>
       <c r="O10" t="n">
-        <v>16128</v>
+        <v>14095</v>
       </c>
       <c r="P10" t="n">
-        <v>484840</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>7057</v>
-      </c>
-      <c r="R10" t="n">
-        <v>339674</v>
-      </c>
-      <c r="S10" t="inlineStr"/>
+        <v>459235</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="n">
+        <v>334602</v>
+      </c>
       <c r="T10" t="n">
-        <v>114590</v>
+        <v>98992</v>
       </c>
       <c r="U10" t="n">
-        <v>7391</v>
+        <v>11546</v>
       </c>
       <c r="V10" t="n">
-        <v>12915</v>
+        <v>20530</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>50226</v>
+        <v>69725</v>
       </c>
       <c r="C11" t="n">
-        <v>939526</v>
-      </c>
-      <c r="D11" t="n">
-        <v>14647</v>
-      </c>
-      <c r="E11" t="n">
-        <v>669629</v>
-      </c>
+        <v>1232677</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>34888</v>
+        <v>51016</v>
       </c>
       <c r="G11" t="n">
-        <v>463489</v>
-      </c>
-      <c r="H11" t="n">
-        <v>7642</v>
-      </c>
-      <c r="I11" t="n">
-        <v>334843</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
+        <v>607439</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>447519</v>
+      </c>
       <c r="K11" t="n">
-        <v>80455</v>
+        <v>95891</v>
       </c>
       <c r="L11" t="n">
-        <v>5662</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>13013</v>
+      </c>
+      <c r="M11" t="n">
+        <v>895198</v>
+      </c>
       <c r="N11" t="n">
-        <v>191753</v>
+        <v>238753</v>
       </c>
       <c r="O11" t="n">
-        <v>15337</v>
+        <v>18709</v>
       </c>
       <c r="P11" t="n">
-        <v>476037</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>7005</v>
-      </c>
-      <c r="R11" t="n">
-        <v>334786</v>
-      </c>
-      <c r="S11" t="inlineStr"/>
+        <v>625238</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="n">
+        <v>447679</v>
+      </c>
       <c r="T11" t="n">
-        <v>111298</v>
+        <v>142861</v>
       </c>
       <c r="U11" t="n">
-        <v>7610</v>
+        <v>15988</v>
       </c>
       <c r="V11" t="n">
-        <v>13272</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>50692</v>
-      </c>
-      <c r="C12" t="n">
-        <v>934935</v>
-      </c>
-      <c r="D12" t="n">
-        <v>15023</v>
-      </c>
-      <c r="E12" t="n">
-        <v>665734</v>
-      </c>
-      <c r="F12" t="n">
-        <v>34862</v>
-      </c>
-      <c r="G12" t="n">
-        <v>460810</v>
-      </c>
-      <c r="H12" t="n">
-        <v>7848</v>
-      </c>
-      <c r="I12" t="n">
-        <v>334770</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>77147</v>
-      </c>
-      <c r="L12" t="n">
-        <v>6183</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
-        <v>188708</v>
-      </c>
-      <c r="O12" t="n">
-        <v>15830</v>
-      </c>
-      <c r="P12" t="n">
-        <v>474125</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>7175</v>
-      </c>
-      <c r="R12" t="n">
-        <v>330964</v>
-      </c>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="n">
-        <v>111561</v>
-      </c>
-      <c r="U12" t="n">
-        <v>8595</v>
-      </c>
-      <c r="V12" t="n">
-        <v>14778</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>50409</v>
-      </c>
-      <c r="C13" t="n">
-        <v>938993</v>
-      </c>
-      <c r="D13" t="n">
-        <v>19181</v>
-      </c>
-      <c r="E13" t="n">
-        <v>668223</v>
-      </c>
-      <c r="F13" t="n">
-        <v>35345</v>
-      </c>
-      <c r="G13" t="n">
-        <v>463408</v>
-      </c>
-      <c r="H13" t="n">
-        <v>9879</v>
-      </c>
-      <c r="I13" t="n">
-        <v>336269</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>75132</v>
-      </c>
-      <c r="L13" t="n">
-        <v>6783</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
-        <v>184889</v>
-      </c>
-      <c r="O13" t="n">
-        <v>15064</v>
-      </c>
-      <c r="P13" t="n">
-        <v>475585</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>9302</v>
-      </c>
-      <c r="R13" t="n">
-        <v>331953</v>
-      </c>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="n">
-        <v>109758</v>
-      </c>
-      <c r="U13" t="n">
-        <v>9508</v>
-      </c>
-      <c r="V13" t="n">
-        <v>16291</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>978571</v>
-      </c>
-      <c r="C14" t="n">
-        <v>17790430</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
-        <v>689069</v>
-      </c>
-      <c r="G14" t="n">
-        <v>8779053</v>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>6505270</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1435678</v>
-      </c>
-      <c r="L14" t="n">
-        <v>130800</v>
-      </c>
-      <c r="M14" t="n">
-        <v>12973649</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3495613</v>
-      </c>
-      <c r="O14" t="n">
-        <v>289502</v>
-      </c>
-      <c r="P14" t="n">
-        <v>9011377</v>
-      </c>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
-        <v>6468379</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2059935</v>
-      </c>
-      <c r="U14" t="n">
-        <v>174084</v>
-      </c>
-      <c r="V14" t="n">
-        <v>304884</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>53577</v>
-      </c>
-      <c r="C15" t="n">
-        <v>965321</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>37641</v>
-      </c>
-      <c r="G15" t="n">
-        <v>476376</v>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>356158</v>
-      </c>
-      <c r="K15" t="n">
-        <v>74584</v>
-      </c>
-      <c r="L15" t="n">
-        <v>7993</v>
-      </c>
-      <c r="M15" t="n">
-        <v>710768</v>
-      </c>
-      <c r="N15" t="n">
-        <v>182568</v>
-      </c>
-      <c r="O15" t="n">
-        <v>15935</v>
-      </c>
-      <c r="P15" t="n">
-        <v>488944</v>
-      </c>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
-        <v>354610</v>
-      </c>
-      <c r="T15" t="n">
-        <v>107984</v>
-      </c>
-      <c r="U15" t="n">
-        <v>10415</v>
-      </c>
-      <c r="V15" t="n">
-        <v>18408</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>52740</v>
-      </c>
-      <c r="C16" t="n">
-        <v>952893</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
-        <v>37793</v>
-      </c>
-      <c r="G16" t="n">
-        <v>470561</v>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>351854</v>
-      </c>
-      <c r="K16" t="n">
-        <v>72470</v>
-      </c>
-      <c r="L16" t="n">
-        <v>8444</v>
-      </c>
-      <c r="M16" t="n">
-        <v>703884</v>
-      </c>
-      <c r="N16" t="n">
-        <v>177158</v>
-      </c>
-      <c r="O16" t="n">
-        <v>14946</v>
-      </c>
-      <c r="P16" t="n">
-        <v>482331</v>
-      </c>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
-        <v>352030</v>
-      </c>
-      <c r="T16" t="n">
-        <v>104688</v>
-      </c>
-      <c r="U16" t="n">
-        <v>10667</v>
-      </c>
-      <c r="V16" t="n">
-        <v>19110</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>53360</v>
-      </c>
-      <c r="C17" t="n">
-        <v>951685</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>38821</v>
-      </c>
-      <c r="G17" t="n">
-        <v>470327</v>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>353052</v>
-      </c>
-      <c r="K17" t="n">
-        <v>69466</v>
-      </c>
-      <c r="L17" t="n">
-        <v>8986</v>
-      </c>
-      <c r="M17" t="n">
-        <v>705367</v>
-      </c>
-      <c r="N17" t="n">
-        <v>172875</v>
-      </c>
-      <c r="O17" t="n">
-        <v>14538</v>
-      </c>
-      <c r="P17" t="n">
-        <v>481358</v>
-      </c>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
-        <v>352315</v>
-      </c>
-      <c r="T17" t="n">
-        <v>103409</v>
-      </c>
-      <c r="U17" t="n">
-        <v>11095</v>
-      </c>
-      <c r="V17" t="n">
-        <v>20082</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>51947</v>
-      </c>
-      <c r="C18" t="n">
-        <v>908609</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>37853</v>
-      </c>
-      <c r="G18" t="n">
-        <v>449374</v>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>337817</v>
-      </c>
-      <c r="K18" t="n">
-        <v>64721</v>
-      </c>
-      <c r="L18" t="n">
-        <v>8984</v>
-      </c>
-      <c r="M18" t="n">
-        <v>672419</v>
-      </c>
-      <c r="N18" t="n">
-        <v>163714</v>
-      </c>
-      <c r="O18" t="n">
-        <v>14095</v>
-      </c>
-      <c r="P18" t="n">
-        <v>459235</v>
-      </c>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
-        <v>334602</v>
-      </c>
-      <c r="T18" t="n">
-        <v>98992</v>
-      </c>
-      <c r="U18" t="n">
-        <v>11546</v>
-      </c>
-      <c r="V18" t="n">
-        <v>20530</v>
+        <v>29002</v>
       </c>
     </row>
   </sheetData>
